--- a/Libraries/Vehicle/Body/Human/sm_car_data_Passenger.xlsx
+++ b/Libraries/Vehicle/Body/Human/sm_car_data_Passenger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\Human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29393558-8795-4A67-B9C2-CB8DE3D7D24B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D69B8-F7EE-4781-A0A8-0901A431204E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1572" yWindow="3792" windowWidth="13104" windowHeight="8160" tabRatio="747" activeTab="2" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="1464" yWindow="1488" windowWidth="17280" windowHeight="10212" tabRatio="747" activeTab="3" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_0111" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1553,7 +1555,7 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -2042,12 +2044,12 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Libraries/Vehicle/Body/Human/sm_car_data_Passenger.xlsx
+++ b/Libraries/Vehicle/Body/Human/sm_car_data_Passenger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\Human\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Body\Human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D69B8-F7EE-4781-A0A8-0901A431204E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F5C0F1-96F7-4CB3-B2CD-C993C9A7D18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1488" windowWidth="17280" windowHeight="10212" tabRatio="747" activeTab="3" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="3240" yWindow="270" windowWidth="21600" windowHeight="15210" tabRatio="747" activeTab="3" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_0111" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="39">
   <si>
     <t>Units</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>FL:1 FR:1 RL:1 RR:1</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>Use to adjust passenger mass</t>
   </si>
 </sst>
 </file>
@@ -208,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -217,32 +226,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -567,28 +569,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -608,446 +610,511 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.37676294844659303</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="9">
         <v>-0.38719771557762001</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F17" s="9">
         <v>-2.2174461052093601</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G17" s="9">
         <v>0.39084784238996001</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H17" s="9">
         <v>0.59505169501586996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5" t="s">
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G20" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H20" s="9">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F23" s="9">
         <v>-2.21427676686812</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G23" s="9">
         <v>-0.38719771557762001</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H23" s="9">
         <v>0.59352937286280005</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G26" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H26" s="9">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F27" s="18">
-        <f>F10-F20</f>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="15">
+        <f>F11-F23</f>
         <v>0.94771638441553008</v>
       </c>
     </row>
@@ -1062,28 +1129,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1103,442 +1170,507 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>-1.5695403824525895</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.45176294844659298</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>0.59172262194716996</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="9">
         <v>-1.5695403824525895</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="9">
         <v>-0.45176294844659298</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="9">
         <v>0.59172262194716996</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F17" s="9">
         <f>F5-1</f>
         <v>-2.5695403824525895</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G17" s="9">
         <v>0.45176294844659298</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H17" s="9">
         <v>0.59172262194716996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5" t="s">
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G20" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H20" s="9">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="11">
-        <f>F10-1</f>
+      <c r="F23" s="9">
+        <f>F11-1</f>
         <v>-2.5695403824525895</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G23" s="9">
         <v>-0.45176294844659298</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H23" s="9">
         <v>0.59172262194716996</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G26" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H26" s="9">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1553,28 +1685,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1594,440 +1726,505 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>-0.47</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.6</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>1.34</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <v>15</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>-90</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="9">
         <v>-0.98</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="9">
         <v>-0.6</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="9">
         <v>1.34</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <v>15</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="9">
         <v>90</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F17" s="9">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G17" s="9">
         <v>0.755</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H17" s="9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
         <v>15</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="9">
         <v>180</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5" t="s">
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G20" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H20" s="9">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F23" s="9">
         <v>-3.05</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G23" s="9">
         <v>-0.77</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H23" s="9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
         <v>15</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G26" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H26" s="9">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2042,28 +2239,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2083,440 +2280,505 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.37676294844659303</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="9">
         <v>-0.38719771557762001</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F17" s="9">
         <v>-2.2174461052093601</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G17" s="9">
         <v>0.39084784238996001</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H17" s="9">
         <v>0.59505169501586996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5" t="s">
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G20" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H20" s="9">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F23" s="9">
         <v>-2.21427676686812</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G23" s="9">
         <v>-0.38719771557762001</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H23" s="9">
         <v>0.59352937286280005</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G26" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H26" s="9">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
         <v>1</v>
       </c>
     </row>

--- a/Libraries/Vehicle/Body/Human/sm_car_data_Passenger.xlsx
+++ b/Libraries/Vehicle/Body/Human/sm_car_data_Passenger.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Body\Human\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vtpVDG\Libraries\Vehicle\Body\Human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F5C0F1-96F7-4CB3-B2CD-C993C9A7D18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80A10B6-2CA4-4824-BF22-7421984E39DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="270" windowWidth="21600" windowHeight="15210" tabRatio="747" activeTab="3" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="36225" yWindow="1965" windowWidth="20550" windowHeight="13050" tabRatio="747" activeTab="2" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_0111" sheetId="5" r:id="rId1"/>
     <sheet name="Sedan_HambaLG_0111" sheetId="7" r:id="rId2"/>
-    <sheet name="Bus_Makhulu_1111" sheetId="8" r:id="rId3"/>
-    <sheet name="None" sheetId="6" r:id="rId4"/>
+    <sheet name="SUV_Landy_0111" sheetId="9" r:id="rId3"/>
+    <sheet name="Bus_Makhulu_1111" sheetId="8" r:id="rId4"/>
+    <sheet name="None" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="40">
   <si>
     <t>Units</t>
   </si>
@@ -153,6 +154,9 @@
   </si>
   <si>
     <t>Use to adjust passenger mass</t>
+  </si>
+  <si>
+    <t>SUV_Landy_1011</t>
   </si>
 </sst>
 </file>
@@ -270,9 +274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1681,6 +1685,566 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43618AC3-49AC-4FD5-BCE4-408F08260121}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-1.26656038245259</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.37676294844659303</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.8196</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.93330000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9">
+        <v>-1.26656038245259</v>
+      </c>
+      <c r="G11" s="9">
+        <v>-0.38719771557762001</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.8196</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-2.2174461052093601</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.39084784238996001</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.8196</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.93330000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="9">
+        <v>-2.21427676686812</v>
+      </c>
+      <c r="G23" s="9">
+        <v>-0.38719771557762001</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.8196</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.93330000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="15">
+        <f>F11-F23</f>
+        <v>0.94771638441553008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FFACFE-239F-4844-8884-B126D29FE02F}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -2234,14 +2798,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B21396-1863-4AD7-BCF4-450EF2C7774F}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
